--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3747436.922958293</v>
+        <v>3747436.922958294</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1088611.703268487</v>
+        <v>1043093.878176739</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>52.8229012276257</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>27.84087928266794</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>268.6413070582234</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>214.724346569014</v>
       </c>
       <c r="U5" t="n">
-        <v>155.945238196831</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>31.40574271837822</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>60.62476678787758</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>197.1931186855038</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>125.3962972147092</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33.84234274505283</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>33.21937696961085</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.287915044372252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>80.22132974776619</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>18.9321601996846</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>280.2537210490713</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.90175579878743</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>58.70811713027407</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273909</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>1.446023500476854</v>
+        <v>19.45832445216771</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>118.3349146110078</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.78679371236562</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,7 +3241,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,10 +3326,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>160.0006879278803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>3.633341602776479</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>227.310006398666</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79.59117141263928</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>21.07561542818116</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2669.026990732699</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2669.026990732699</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2669.026990732699</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2415.265205370791</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2084.20231802722</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1731.433662757106</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1731.433662757106</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1341.294330781294</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,28 +4410,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2480.255811655582</v>
       </c>
       <c r="U5" t="n">
-        <v>2089.787804211887</v>
+        <v>2480.255811655582</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.787804211887</v>
+        <v>2149.192924312011</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>1796.424269041897</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.958510780817</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>666.9890926172499</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>439.6809052858516</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>439.6809052858516</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>439.6809052858516</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>439.6809052858516</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>489.3282683246671</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1902.751906214479</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2339.279987383381</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>256.4340909802015</v>
+        <v>257.0633493392338</v>
       </c>
       <c r="C10" t="n">
-        <v>87.4979080522946</v>
+        <v>88.1271664113269</v>
       </c>
       <c r="D10" t="n">
-        <v>87.4979080522946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>87.4979080522946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>87.4979080522946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>87.4979080522946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X10" t="n">
-        <v>256.4340909802015</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="Y10" t="n">
-        <v>256.4340909802015</v>
+        <v>438.7118141694735</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>636.1984612611905</v>
       </c>
       <c r="M12" t="n">
-        <v>1931.863653619506</v>
+        <v>1404.566607653652</v>
       </c>
       <c r="N12" t="n">
-        <v>2371.535469249458</v>
+        <v>1749.08726329127</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109413</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.055751909234</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.055751909234</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5270,25 +5270,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5300,22 +5300,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2867756623458</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>493.05190356881</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2386.862770609476</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2591.885251391685</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>289.7833290482032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>289.7833290482032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>289.7833290482032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1018.434294497136</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N18" t="n">
-        <v>1362.954950134754</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>671.7300455988212</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="C19" t="n">
-        <v>671.7300455988212</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988212</v>
+        <v>546.46840711167</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>546.46840711167</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1215.831703841669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>961.1472156357818</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>671.7300455988212</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X19" t="n">
-        <v>671.7300455988212</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y19" t="n">
-        <v>671.7300455988212</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>232.3332043549318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>479.0983322613959</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2148.946068912295</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1451.540759650036</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1451.540759650036</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1227.755344439542</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>938.6267056531004</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>683.9422174472136</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>394.5250474102529</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6023,7 +6023,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1771.161069819836</v>
+        <v>1429.324563341649</v>
       </c>
       <c r="N24" t="n">
-        <v>2122.782055165496</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>156.5182198747041</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6178,19 +6178,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822445</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N27" t="n">
-        <v>1573.034479281205</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.6878657662453</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1297.535630674993</v>
+        <v>1255.4759821634</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.535630674993</v>
+        <v>1000.791493957513</v>
       </c>
       <c r="W28" t="n">
-        <v>1008.118460638033</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="X28" t="n">
-        <v>780.1289097400152</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="Y28" t="n">
-        <v>559.336330596485</v>
+        <v>711.3743239205529</v>
       </c>
     </row>
     <row r="29">
@@ -6446,34 +6446,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>493.5013994809973</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>813.8367190106992</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.357374648317</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>785.4801130615103</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C31" t="n">
-        <v>616.5439301336035</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D31" t="n">
-        <v>616.5439301336035</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E31" t="n">
-        <v>468.6308365512103</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185178</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
         <v>208.7516828383384</v>
@@ -6616,7 +6616,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6652,19 +6652,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.92115703528</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.92115703528</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="Y31" t="n">
-        <v>967.1285778917501</v>
+        <v>644.1080300429513</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>1771.161069819836</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N33" t="n">
-        <v>2115.681725457454</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6935,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7081686256435</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>752.6052383825321</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.973384774994</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N36" t="n">
-        <v>1865.494040412611</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O36" t="n">
-        <v>2534.957801715271</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4073.011257337221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4637.069157803799</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4637.069157803799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4475.45230131099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4254.65972216746</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7254,22 +7254,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>246.2867756623457</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>493.0519035688097</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>897.6601296826479</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.8871334832924</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C40" t="n">
-        <v>100.8871334832924</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>1158.235100050368</v>
       </c>
       <c r="X40" t="n">
-        <v>503.3281774570622</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y40" t="n">
-        <v>282.5355983135321</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7409,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7421,25 +7421,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>232.333204354932</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1942790685366</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1743.605857332687</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>496.665036439558</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>496.665036439558</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,28 +7646,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>232.3332043549318</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>479.0983322613959</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>1098.423997082767</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>1077.135496650261</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>856.3429175067311</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>377.419157403754</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9483,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>196.89146774525</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,10 +10914,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>219.2041188937626</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.2967383077225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>68.69249861976994</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>126.4888878232466</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5.983631349506027</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.06259660500535</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>107.7854513331035</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.7913288981005</v>
+        <v>266.7790279464097</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>61.49706557092951</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>54.63425431056562</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24892,10 +24892,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>65.70896746115682</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>144.9821314154359</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>59.21299193792501</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.240808769298</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,25 +25834,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26041,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>204.634039960856</v>
+        <v>14.45548819888947</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="K2" t="n">
         <v>703852.3075278758</v>
@@ -26344,16 +26344,16 @@
         <v>703852.3075278758</v>
       </c>
       <c r="M2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="N2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278756</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758329</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905759454</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26454,7 +26454,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759209</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.5035807185</v>
+        <v>-72948.50358071818</v>
       </c>
       <c r="C6" t="n">
+        <v>517019.3756338264</v>
+      </c>
+      <c r="D6" t="n">
         <v>517019.3756338261</v>
-      </c>
-      <c r="D6" t="n">
-        <v>517019.3756338264</v>
       </c>
       <c r="E6" t="n">
         <v>85917.15141168714</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885833</v>
+        <v>611077.1878885831</v>
       </c>
       <c r="G6" t="n">
+        <v>611077.1878885832</v>
+      </c>
+      <c r="H6" t="n">
+        <v>611077.1878885832</v>
+      </c>
+      <c r="I6" t="n">
         <v>611077.1878885836</v>
       </c>
-      <c r="H6" t="n">
-        <v>611077.1878885829</v>
-      </c>
-      <c r="I6" t="n">
-        <v>611077.1878885831</v>
-      </c>
       <c r="J6" t="n">
-        <v>434653.9686959905</v>
+        <v>434653.9686959903</v>
       </c>
       <c r="K6" t="n">
         <v>611077.1878885833</v>
@@ -26552,16 +26552,16 @@
         <v>611077.1878885833</v>
       </c>
       <c r="M6" t="n">
-        <v>476276.1726547463</v>
+        <v>476276.1726547462</v>
       </c>
       <c r="N6" t="n">
-        <v>611077.1878885833</v>
+        <v>611077.1878885831</v>
       </c>
       <c r="O6" t="n">
-        <v>611077.1878885834</v>
+        <v>611077.1878885832</v>
       </c>
       <c r="P6" t="n">
-        <v>611077.1878885832</v>
+        <v>611077.1878885835</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>271.0998715367314</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.63752329214377</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>17.64056718375429</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.723973788643775</v>
       </c>
       <c r="U5" t="n">
-        <v>95.27892931145828</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>180.7397962316407</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>165.0848886011596</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>168.0797730855038</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>125.8278702935801</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>114.7731302731595</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>122.9515118721843</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942384</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>17.51464820439975</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>96.11228282053901</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>228.3866067644996</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>171.9901114440551</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,28 +32312,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32494,7 +32494,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
         <v>76.0697047810465</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>274.322361090163</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32561,16 +32561,16 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>294.9332917681738</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>7.172050210143482</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>203.8913618981909</v>
       </c>
       <c r="O27" t="n">
-        <v>380.1002717610831</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>68.34248921961813</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>405.1037147397957</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>7.172050210143198</v>
+        <v>413.8523816763275</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>262.5905971701976</v>
       </c>
       <c r="P36" t="n">
-        <v>223.4852191929842</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,34 +33974,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.3866067645003</v>
+        <v>126.0475280469432</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>232.4121821352565</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>383.0062604371802</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>232.4121821352563</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730088</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.8006137279847</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>444.1129450807592</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>551.9576365924812</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>32.00833735803358</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>659.7828596448621</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>136.480922115804</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>479.4216529937808</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>355.1727124703637</v>
+        <v>530.0860411432628</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>551.8920241584111</v>
       </c>
       <c r="O27" t="n">
-        <v>237.5040273166387</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>391.9135190475997</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>656.3697895720808</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>258.4381250424283</v>
+        <v>665.1184565086126</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>513.8566720024827</v>
       </c>
       <c r="P36" t="n">
-        <v>89.51081177865397</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>551.9576365924819</v>
+        <v>449.6185578749248</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>94.57074316089751</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>634.2723352694653</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>94.57074316089731</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>529.6284959442288</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3747436.922958294</v>
+        <v>3822966.592623099</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043093.878176739</v>
+        <v>432128.3019100805</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>52.8229012276257</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>112.6571527960868</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>268.6413070582234</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>93.23956689310475</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>75.73848736380138</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.724346569014</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>60.62476678787758</v>
+        <v>118.994493051312</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>197.1931186855038</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.41145625320689</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33.84234274505283</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274064</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>47.62361933169262</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185858</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151915</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>46.18719652447322</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>18.9321601996846</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.3715880193586</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>170.9968043436586</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.1390570986541</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273909</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>104.4511949660467</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>19.45832445216771</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.3349146110078</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.11567179741712</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2998,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>66.72617561655015</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>36.41340127570007</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3557,19 +3559,19 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174114</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.5564883283892</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3709,7 +3711,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>227.310006398666</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1796758467</v>
+        <v>147.8530952542004</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>130.5153688542811</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>211.2541671901477</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>107.2994477068551</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1767.323137322975</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="3">
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1352.258819987542</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>983.2963030471299</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>625.0306044403794</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>625.0306044403794</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2480.255811655582</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2480.255811655582</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2149.192924312011</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1796.424269041897</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.958510780817</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164661</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>773.500346212138</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
         <v>99.5995062532301</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>489.3282683246671</v>
+        <v>607.9325265788466</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.535689181137</v>
+        <v>607.9325265788466</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1902.751906214479</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>716.790272971657</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>716.790272971657</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>305.8043681820495</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y8" t="n">
-        <v>2289.351746278601</v>
+        <v>1075.055971578407</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>88.1271664113269</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,7 +5062,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
@@ -5072,19 +5074,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>636.1984612611905</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>1404.566607653652</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>1749.08726329127</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2418.551024593929</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>462.1710339621943</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>293.2348510342875</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>293.2348510342875</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>145.3217574518945</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>145.3217574518945</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>145.3217574518945</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>145.3217574518945</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>933.2366688293944</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>643.8194987924339</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>643.8194987924339</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>643.8194987924339</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5263,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N15" t="n">
-        <v>2107.322705390779</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O15" t="n">
-        <v>2386.862770609476</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2591.885251391685</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>280.6570073165065</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M18" t="n">
-        <v>1778.261399527878</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.5850465240057</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="C19" t="n">
-        <v>696.5850465240057</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="D19" t="n">
-        <v>546.46840711167</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="E19" t="n">
-        <v>546.46840711167</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240057</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="X19" t="n">
-        <v>696.5850465240057</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="Y19" t="n">
-        <v>696.5850465240057</v>
+        <v>4015.911034827088</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5740,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5756,7 +5758,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>243.0706902632331</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N21" t="n">
-        <v>1479.482307609636</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.946068912295</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5938,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954967</v>
+        <v>791.4116970332115</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>1429.324563341649</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1826.038069264287</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805453</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822445</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126481</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>877.4353633695368</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>1645.803509761998</v>
+        <v>1092.65561809896</v>
       </c>
       <c r="N27" t="n">
-        <v>2192.176613678825</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.3743239205529</v>
+        <v>462.1710339621928</v>
       </c>
       <c r="C28" t="n">
-        <v>542.438140992646</v>
+        <v>462.1710339621928</v>
       </c>
       <c r="D28" t="n">
-        <v>542.438140992646</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1255.4759821634</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>1000.791493957513</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W28" t="n">
-        <v>711.3743239205529</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X28" t="n">
-        <v>711.3743239205529</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.3743239205529</v>
+        <v>643.8194987924326</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6445,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>1509.998813918811</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N30" t="n">
-        <v>1854.519469556429</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2413.069618635347</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2413.069618635347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>524.5778132641556</v>
+        <v>4239.569720395627</v>
       </c>
       <c r="C31" t="n">
-        <v>355.6416303362487</v>
+        <v>4070.63353746772</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6416303362487</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488382</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V31" t="n">
-        <v>644.1080300429513</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W31" t="n">
-        <v>644.1080300429513</v>
+        <v>4460.362299539157</v>
       </c>
       <c r="X31" t="n">
-        <v>644.1080300429513</v>
+        <v>4460.362299539157</v>
       </c>
       <c r="Y31" t="n">
-        <v>644.1080300429513</v>
+        <v>4239.569720395627</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,16 +6715,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527472</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.996816116898</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.9054447954965</v>
+        <v>3944.179992107156</v>
       </c>
       <c r="C34" t="n">
-        <v>130.9054447954965</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="D34" t="n">
-        <v>130.9054447954965</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="E34" t="n">
-        <v>130.9054447954965</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F34" t="n">
-        <v>130.9054447954965</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G34" t="n">
-        <v>130.9054447954965</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>130.9054447954965</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>4682.379292185664</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>4682.379292185664</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>4682.379292185664</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>4682.379292185664</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>4392.962122148703</v>
       </c>
       <c r="X34" t="n">
-        <v>130.9054447954965</v>
+        <v>4164.972571250686</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9054447954965</v>
+        <v>3944.179992107156</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6938,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6977,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7022,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>738.0704661731477</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M36" t="n">
-        <v>1058.405785702849</v>
+        <v>1523.240634603724</v>
       </c>
       <c r="N36" t="n">
-        <v>1862.817363967</v>
+        <v>2169.797610509966</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7123,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1262.215047063657</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>972.7978770266959</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="38">
@@ -7178,43 +7180,43 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>452.5377573864724</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M39" t="n">
-        <v>897.6601296826479</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.071707946799</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.8045051785809</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C40" t="n">
-        <v>358.8683222506741</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W40" t="n">
-        <v>1158.235100050368</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X40" t="n">
-        <v>930.2455491523508</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4529700088207</v>
+        <v>643.8194987924326</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7406,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>232.333204354932</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>479.098332261396</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1143.791854554974</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1313.886294955175</v>
+        <v>1238.494606256899</v>
       </c>
       <c r="T43" t="n">
-        <v>1090.100879744681</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>786.7196401483878</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7731,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>674.4285624571609</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>904.39166832551</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1256.007461206313</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>966.8788224198709</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>966.8788224198709</v>
       </c>
       <c r="W46" t="n">
-        <v>531.3977182706318</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8784,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>235.9572324486949</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>105.4166885228179</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>196.89146774525</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>332.2996397537863</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10431,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>467.6700788283093</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>319.8932810527372</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10923,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>424.2884472174325</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>219.2041188937626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>357.2791106683916</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>62.79562613257926</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338579</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>172.3974568276216</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>126.4888878232466</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>9.766055304469404</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24130,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>115.5261939929324</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>79.44559625344067</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>44.16427805216561</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>266.7790279464097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.49706557092951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>114.4998012207952</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>131.1946343670531</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>215.7242420481279</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.27549185354805</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>59.21299193792501</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>14.74113413690324</v>
+        <v>50.06771472940284</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>91.0321922041081</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>14.45548819888947</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778547</v>
@@ -26323,37 +26325,37 @@
         <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="G2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="H2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.3075278761</v>
-      </c>
       <c r="J2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="K2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="L2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.55243914085708e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26424,40 +26426,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905759919</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905759454</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>787.7936905759512</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905759209</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071818</v>
+        <v>-72948.5035807185</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338264</v>
+        <v>517019.3756338262</v>
       </c>
       <c r="D6" t="n">
         <v>517019.3756338261</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168714</v>
+        <v>85917.15141168689</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885831</v>
+        <v>611077.1878885833</v>
       </c>
       <c r="G6" t="n">
+        <v>611077.1878885833</v>
+      </c>
+      <c r="H6" t="n">
+        <v>611077.1878885834</v>
+      </c>
+      <c r="I6" t="n">
         <v>611077.1878885832</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>434653.9686959904</v>
+      </c>
+      <c r="K6" t="n">
+        <v>611077.1878885834</v>
+      </c>
+      <c r="L6" t="n">
         <v>611077.1878885832</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>476276.1726547463</v>
+      </c>
+      <c r="N6" t="n">
+        <v>611077.1878885833</v>
+      </c>
+      <c r="O6" t="n">
         <v>611077.1878885836</v>
-      </c>
-      <c r="J6" t="n">
-        <v>434653.9686959903</v>
-      </c>
-      <c r="K6" t="n">
-        <v>611077.1878885833</v>
-      </c>
-      <c r="L6" t="n">
-        <v>611077.1878885833</v>
-      </c>
-      <c r="M6" t="n">
-        <v>476276.1726547462</v>
-      </c>
-      <c r="N6" t="n">
-        <v>611077.1878885831</v>
-      </c>
-      <c r="O6" t="n">
-        <v>611077.1878885832</v>
       </c>
       <c r="P6" t="n">
         <v>611077.1878885835</v>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26943,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.69054892607135e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>271.0998715367314</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>257.0739478823823</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>17.64056718375429</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>193.2834314434863</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>331.1375583779101</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>1.723973788643775</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>165.0848886011596</v>
+        <v>106.7151623377252</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>168.0797730855038</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.3727137675881</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>114.7731302731595</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031429</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-13</v>
       </c>
     </row>
     <row r="14">
@@ -30232,10 +30234,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30283,13 +30285,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323505</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304388</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,10 +31384,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942384</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>177.5954266578336</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>17.51464820439975</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>158.0642534345934</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,34 +32071,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.9901114440551</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>58.66904626099313</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>171.3135836203299</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32330,19 +32332,19 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32490,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>294.9332917681738</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,25 +32791,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>323.0126678614004</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32947,7 +32949,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
@@ -33026,16 +33028,16 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>203.8913618981909</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33044,7 +33046,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33260,31 +33262,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>68.34248921961813</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>131.7972890203658</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33503,25 +33505,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>413.8523816763275</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33734,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>262.5905971701976</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33916,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33974,16 +33976,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>126.0475280469432</v>
+        <v>405.2010519226764</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,10 +33994,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>232.4121821352565</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,16 +34231,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,19 +34447,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34469,13 +34471,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686584</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730088</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>428.8615014901187</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.8006137279847</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>481.6352832625749</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556565</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187487</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>93.82319852667653</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00833735803358</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>185.2928442992127</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>494.8846134483115</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
@@ -35978,10 +35980,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>147.3268674777245</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>479.4216529937808</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>530.0860411432628</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>507.5010290870073</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36674,16 +36676,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>190.165605831768</v>
       </c>
       <c r="N27" t="n">
-        <v>551.8920241584111</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>391.9135190475997</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>201.8928026701934</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>336.3283667449761</v>
       </c>
       <c r="O33" t="n">
-        <v>665.1184565086126</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>653.08785445075</v>
       </c>
       <c r="O36" t="n">
-        <v>513.8566720024827</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>449.6185578749248</v>
+        <v>728.772081750658</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>94.57074316089751</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>292.9467351340991</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>529.6284959442288</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>225.9373985850582</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38119,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3822966.592623099</v>
+        <v>3815949.577731388</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>432128.3019100805</v>
+        <v>579489.3512025826</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>159.3199338524831</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>112.6571527960868</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>93.23956689310475</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>75.73848736380138</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>46.49527385100491</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>118.994493051312</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>97.41145625320689</v>
+        <v>376.0368885193218</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>139.6528551206851</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274064</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>47.62361933169262</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.18719652447322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>242.3715880193586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274078</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>170.9968043436586</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.1390570986541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>104.4511949660467</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.11567179741712</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>253.1488561805823</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>66.72617561655015</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>210.9685212521338</v>
       </c>
       <c r="V37" t="n">
-        <v>36.41340127570007</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.5564883283892</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>28.56876306769543</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>147.8530952542004</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>121.9303464341693</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>130.5153688542811</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990.5839652830418</v>
+        <v>962.9693282917585</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830418</v>
+        <v>594.0068113513469</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>235.7411127445964</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X2" t="n">
-        <v>1767.323137322975</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1377.183805347164</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1352.258819987542</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>983.2963030471299</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>625.0306044403794</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>625.0306044403794</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2650.184167936399</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2474.006680250569</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2255.372013222632</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2001.610227860724</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1670.547340517153</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.858660051663</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1738.858660051663</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,19 +4649,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>368.8844281164661</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>773.500346212138</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2627.754532504893</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.2840617486069</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X7" t="n">
-        <v>607.9325265788466</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y7" t="n">
-        <v>607.9325265788466</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1075.055971578407</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C8" t="n">
-        <v>1075.055971578407</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D8" t="n">
-        <v>716.790272971657</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E8" t="n">
-        <v>716.790272971657</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F8" t="n">
-        <v>305.8043681820495</v>
+        <v>433.7782227489724</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.055971578407</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731477</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>1524.052509796274</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>462.1710339621943</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>293.2348510342875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>293.2348510342875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>145.3217574518945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>145.3217574518945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>145.3217574518945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>145.3217574518945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035281</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293944</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924339</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>643.8194987924339</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>643.8194987924339</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603097</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5515,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>280.6570073165065</v>
+        <v>648.0342195052083</v>
       </c>
       <c r="L18" t="n">
-        <v>894.5540770733951</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603097</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4015.911034827088</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>4015.911034827088</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>4015.911034827088</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>4260.730820705228</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>4015.911034827088</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>4015.911034827088</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>4015.911034827088</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>4015.911034827088</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,13 +5773,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>243.0706902632331</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>653.9609591077458</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>883.924064976095</v>
+        <v>1080.303607295999</v>
       </c>
       <c r="M21" t="n">
-        <v>1204.259384505797</v>
+        <v>1080.303607295999</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.780040143415</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4221461351941</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5943,19 +5943,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247858</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>791.4116970332115</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>563.4221461351941</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.4221461351941</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,10 +5992,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,19 +6007,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>452.5377573864724</v>
+        <v>802.0403666355642</v>
       </c>
       <c r="M24" t="n">
-        <v>772.8730769161741</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.284655180325</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>1826.038069264287</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273991</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904385</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X25" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,61 +6202,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1092.65561809896</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N27" t="n">
-        <v>1897.067196363111</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>462.1710339621928</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>462.1710339621928</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>643.8194987924326</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>643.8194987924326</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>643.8194987924326</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1942790685366</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2413.069618635347</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2413.069618635347</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4239.569720395627</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>4070.63353746772</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4749.779469576118</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V31" t="n">
-        <v>4749.779469576118</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W31" t="n">
-        <v>4460.362299539157</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X31" t="n">
-        <v>4460.362299539157</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y31" t="n">
-        <v>4239.569720395627</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6715,10 +6715,10 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6782,22 +6782,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1031.449480746876</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N33" t="n">
-        <v>1364.414563824403</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3944.179992107156</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3775.243809179249</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3775.243809179249</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4682.379292185664</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>4682.379292185664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4682.379292185664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4682.379292185664</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4392.962122148703</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4164.972571250686</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>3944.179992107156</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>754.8724882112625</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M36" t="n">
-        <v>1523.240634603724</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>2169.797610509966</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V37" t="n">
-        <v>1262.215047063657</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W37" t="n">
-        <v>972.7978770266959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X37" t="n">
-        <v>744.8083261286786</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.8083261286786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,58 +7168,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7259,19 +7259,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>754.8724882112625</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1476.356849144414</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N39" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>528.105874218302</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7341,13 +7341,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V40" t="n">
-        <v>933.2366688293931</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W40" t="n">
-        <v>643.8194987924326</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X40" t="n">
-        <v>643.8194987924326</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y40" t="n">
-        <v>643.8194987924326</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7493,19 +7493,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>836.471721275012</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1143.791854554974</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>565.9270610048577</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>565.9270610048577</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7575,16 +7575,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1238.494606256899</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1014.709191046405</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="U43" t="n">
-        <v>1014.709191046405</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="V43" t="n">
-        <v>1014.709191046405</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="W43" t="n">
-        <v>1014.709191046405</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>786.7196401483878</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>565.9270610048577</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>904.39166832551</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7815,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
-        <v>1256.007461206313</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>966.8788224198709</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>966.8788224198709</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>677.4616523829102</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8783,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>235.9572324486949</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>105.4166885228179</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,22 +9962,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>332.2996397537863</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,19 +10439,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>467.6700788283093</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,25 +10670,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>319.8932810527372</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504523</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>424.2884472174325</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>357.2791106683916</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>62.79562613257926</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583891</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.3974568276216</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>9.766055304469404</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>112.0695782210727</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>115.5261939929324</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.44559625344067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>44.16427805216561</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>114.4998012207952</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>33.08849621799502</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>131.1946343670531</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>75.26883114644357</v>
       </c>
       <c r="V37" t="n">
-        <v>215.7242420481279</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.27549185354805</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>197.1408923213417</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.06771472940284</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>99.61721462421993</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>91.0321922041081</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="H2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="M2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.3075278758</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278759</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.600423069724321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.103318550570429e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.55243914085708e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759919</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905759107</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905759107</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>787.7936905759102</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905759512</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,16 +26487,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.5035807185</v>
+        <v>-72948.50358071846</v>
       </c>
       <c r="C6" t="n">
         <v>517019.3756338262</v>
@@ -26530,40 +26530,40 @@
         <v>517019.3756338261</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168689</v>
+        <v>84942.56015196524</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885834</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885832</v>
+        <v>610102.5966288617</v>
       </c>
       <c r="J6" t="n">
-        <v>434653.9686959904</v>
+        <v>433679.3774362687</v>
       </c>
       <c r="K6" t="n">
-        <v>611077.1878885834</v>
+        <v>610102.5966288617</v>
       </c>
       <c r="L6" t="n">
-        <v>611077.1878885832</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="M6" t="n">
-        <v>476276.1726547463</v>
+        <v>475301.5813950248</v>
       </c>
       <c r="N6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="O6" t="n">
-        <v>611077.1878885836</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="P6" t="n">
-        <v>611077.1878885835</v>
+        <v>610102.5966288616</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26706,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26943,10 +26943,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.69054892607135e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>222.6104362197786</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>257.0739478823823</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>193.2834314434863</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>331.1375583779101</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>7.9831287238068</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,25 +27779,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>225.8088232833277</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>106.7151623377252</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>316.3727137675881</v>
+        <v>37.74728150147314</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>112.4847882031429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399514</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30234,10 +30234,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30285,13 +30285,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31129,7 +31129,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>115.4815392304388</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31618,25 +31618,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>177.5954266578336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,28 +31849,28 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>158.0642534345934</v>
+        <v>302.3490120616787</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32095,13 +32095,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>143.7722227488687</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32314,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>58.66904626099313</v>
+        <v>261.7559250855784</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32332,10 +32332,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32493,7 +32493,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
@@ -32557,25 +32557,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>177.6888272429181</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,22 +32782,22 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>185.0317243401308</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
@@ -32806,10 +32806,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>323.0126678614004</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,25 +33019,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33046,16 +33046,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,34 +33256,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>131.7972890203658</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,31 +33493,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>405.2010519226764</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34538,10 +34538,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>242.1053372686584</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>428.8615014901187</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35497,16 +35497,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>481.6352832625749</v>
+        <v>625.9200418896603</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,22 +35734,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>93.82319852667653</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>213.8677363986963</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>185.2928442992127</v>
+        <v>388.379723123798</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
@@ -35980,10 +35980,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>147.3268674777245</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>409.9747927665031</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>417.3176898637158</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
@@ -36454,10 +36454,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>507.5010290870073</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>190.165605831768</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>201.8928026701934</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>336.3283667449761</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
-        <v>653.08785445075</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>728.772081750658</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109089</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>292.9467351340991</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N45" t="n">
-        <v>225.9373985850582</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3815949.577731388</v>
+        <v>3820888.84058042</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579489.3512025826</v>
+        <v>579489.3512025834</v>
       </c>
     </row>
     <row r="8">
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>46.49527385100491</v>
+        <v>46.49527385100446</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>376.0368885193218</v>
+        <v>376.0368885193205</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.51033041214341</v>
+        <v>28.51033041214319</v>
       </c>
     </row>
     <row r="11">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>161.6984576579871</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>234.1231749377858</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274078</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>85.85123176253083</v>
       </c>
       <c r="F22" t="n">
-        <v>33.35146980185857</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>134.1933123966027</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>253.1488561805823</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>210.9685212521338</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>28.56876306769543</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>121.9303464341693</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151914</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4670,28 +4670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4713,19 +4713,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.780595683986</v>
+        <v>1957.780595683985</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.818078743575</v>
+        <v>1588.818078743573</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.552380136824</v>
+        <v>1230.552380136823</v>
       </c>
       <c r="E8" t="n">
-        <v>844.7641275385799</v>
+        <v>844.7641275385786</v>
       </c>
       <c r="F8" t="n">
-        <v>433.7782227489724</v>
+        <v>433.778222748971</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748107</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>517.6822058285748</v>
       </c>
       <c r="C10" t="n">
         <v>348.7460229006679</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3306706588146</v>
+        <v>699.3306706588145</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514079</v>
@@ -5065,28 +5065,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1524.052509796274</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="O12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1513.422497698974</v>
       </c>
       <c r="N15" t="n">
-        <v>2401.214434244129</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="O15" t="n">
-        <v>2401.214434244129</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P15" t="n">
-        <v>2401.214434244129</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,13 +5591,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>648.0342195052083</v>
+        <v>648.0342195052081</v>
       </c>
       <c r="L18" t="n">
         <v>1261.931289262097</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,19 +5764,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,16 +5819,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9054447954965</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799445</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
@@ -5995,13 +5995,13 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>802.0403666355642</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M24" t="n">
         <v>1570.408513028025</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>530.7956248556235</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>530.7956248556235</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>380.6789854432877</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>232.7658918608946</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>232.7658918608946</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706316</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W25" t="n">
-        <v>241.980548233671</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>712.4440896858632</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047984</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454148</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6457,40 +6457,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6539,10 +6539,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6630,13 +6630,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1019.424940013486</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>764.7404518075996</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>475.3232817706389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822466</v>
@@ -6700,52 +6700,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6788,7 +6788,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454148</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6864,16 +6864,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,10 +6885,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011507</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,13 +6949,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7016,13 +7016,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
         <v>2056.693778606511</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,10 +7250,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
@@ -7262,7 +7262,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454148</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>413.0432218861031</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7341,13 +7341,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609662</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550793</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181187</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X40" t="n">
-        <v>413.0432218861031</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y40" t="n">
-        <v>413.0432218861031</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7408,52 +7408,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7499,7 +7499,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454148</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7578,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1064.759190940159</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U43" t="n">
-        <v>1064.759190940159</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1064.759190940159</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>1064.759190940159</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>836.769640042142</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7736,7 +7736,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454148</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7815,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -10214,7 +10214,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504523</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298389</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>18.13352252395021</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>18.01446838604215</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>60.58273088403834</v>
       </c>
       <c r="F22" t="n">
-        <v>112.0695782210727</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>32.30025606677489</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>33.08849621799502</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>75.26883114644357</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>52.31591677926856</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>197.1408923213417</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>99.61721462421993</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338591</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26325,34 +26325,34 @@
         <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="J2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>703852.3075278758</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.307527876</v>
       </c>
       <c r="L2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="P2" t="n">
         <v>703852.3075278758</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.600423069724321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>9.103318550570429e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.1391806192</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905759286</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905759211</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905759107</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905759107</v>
-      </c>
       <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905759102</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-72948.50358071846</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338262</v>
+        <v>517019.3756338261</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338261</v>
+        <v>517019.3756338264</v>
       </c>
       <c r="E6" t="n">
-        <v>84942.56015196524</v>
+        <v>85819.69228571434</v>
       </c>
       <c r="F6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626114</v>
       </c>
       <c r="G6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.728762611</v>
       </c>
       <c r="H6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="I6" t="n">
-        <v>610102.5966288617</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="J6" t="n">
-        <v>433679.3774362687</v>
+        <v>434556.5095700182</v>
       </c>
       <c r="K6" t="n">
-        <v>610102.5966288617</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="L6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="M6" t="n">
-        <v>475301.5813950248</v>
+        <v>476178.7135287737</v>
       </c>
       <c r="N6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="O6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="P6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626113</v>
       </c>
     </row>
   </sheetData>
@@ -26706,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,13 +26792,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990183</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990183</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.9831287238068</v>
+        <v>7.983128723807248</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>37.74728150147314</v>
+        <v>37.7472815014745</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.0743229399514</v>
+        <v>190.0743229399516</v>
       </c>
     </row>
     <row r="11">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31384,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>35.71704454958152</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,16 +31843,16 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>302.3490120616787</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>442.9264862680355</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31861,7 +31861,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,19 +32077,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>360.217633226525</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32098,16 +32098,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.7722227488687</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>261.7559250855784</v>
+        <v>261.7559250855782</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,16 +32490,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32563,7 +32563,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>185.0317243401308</v>
+        <v>185.0317243401305</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508805</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,10 +33116,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33268,13 +33268,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>380.6284621420188</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33505,13 +33505,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508805</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
         <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33827,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33979,13 +33979,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508805</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -34216,13 +34216,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508805</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34453,13 +34453,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508805</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34538,10 +34538,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>220.2054057751884</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>625.9200418896603</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>790.9271485282558</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>683.7886630545066</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.8677363986963</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>388.379723123798</v>
+        <v>388.3797231237978</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>417.3176898637158</v>
+        <v>417.3176898637155</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111007</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>704.1994919700004</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111007</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111007</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109089</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111007</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111007</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
